--- a/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-36,66%</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>-17,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,27%</t>
+          <t>-41,47%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-30,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-42,05%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 2,83</t>
+          <t>-6,71; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 5,59</t>
+          <t>-9,79; 2,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 7,31</t>
+          <t>-9,94; 2,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-72,08; 46,09</t>
+          <t>-12,85; 2,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,64; 57,85</t>
+          <t>-71,94; 113,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 79,68</t>
+          <t>-77,09; 38,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-67,63; 47,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-71,06; 31,46</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,03</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-65,09%</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,94%</t>
+          <t>-74,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-74,29%</t>
+          <t>-69,23%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-73,87%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-58,22%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -1,72</t>
+          <t>-14,6; -2,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 12,47</t>
+          <t>-17,6; -3,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -6,76</t>
+          <t>-17,47; -3,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-89,19; -10,87</t>
+          <t>-18,84; -2,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,83; 95,74</t>
+          <t>-92,35; -27,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-92,68; -31,88</t>
+          <t>-87,53; -25,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-93,39; -25,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-80,55; -18,22</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,65</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-75,66%</t>
+          <t>98,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-71,82%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>112,11%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 25,05</t>
+          <t>-16,18; 15,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 18,42</t>
+          <t>-11,75; 16,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 1,26</t>
+          <t>-25,98; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-6,12; 19,96</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 499,59</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 389,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,59%</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,75%</t>
+          <t>-44,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,37%</t>
+          <t>-50,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-54,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-43,32%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,55</t>
+          <t>-7,56; -0,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,28</t>
+          <t>-9,86; -1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -3,02</t>
+          <t>-10,64; -1,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -1,73</t>
+          <t>-11,99; -0,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,49; 27,35</t>
+          <t>-69,84; 1,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -18,16</t>
+          <t>-72,07; -12,23</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-73,77; -17,19</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-66,19; -3,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,56</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-17,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-41,47%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-30,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-42,05%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.004422092134939</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.133255260569527</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-4.562307293154507</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-5.59387627977723</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1635340993904565</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4483530339959555</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4036396415522305</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4196926390010594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 3,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 2,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,94; 2,85</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 2,11</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-71,94; 113,24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-77,09; 38,8</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-67,63; 47,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-71,06; 31,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.717237599296194</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.949621115617234</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.79073037666962</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.83250432404445</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7299596201683874</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7820177727997093</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.721319720501876</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7163325497388716</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.491542966792247</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.55785264589936</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.544840509714215</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.152742508100793</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.124214878841667</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.3276863893708871</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2789975155093217</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3283484056587945</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-9,12</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,64</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-74,74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-69,23%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-73,87%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-58,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; -2,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,6; -3,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,47; -3,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-18,84; -2,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-92,35; -27,92</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-87,53; -25,84</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-93,39; -25,66</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-80,55; -18,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.214834029421112</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.178113770775157</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-10.12893884078052</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-9.560666817539065</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.722454860486327</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.6941371988979366</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.7630993730031077</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.5679405922599532</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,99</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,95</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>25,29%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>98,79%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-71,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>112,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.20455502218538</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.34664537887659</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-20.28841370384027</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-18.48407565341458</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9156957510051298</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.875440974498623</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.941913103077986</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8034173577309536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,18; 15,69</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 16,08</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-25,98; 3,21</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 19,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.688209388973137</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-2.805611164291576</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-4.087817432304763</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-2.157055556923906</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.1460012916914681</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.2253197665417596</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.2504504219618783</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.1395880062847291</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-6,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,9</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-44,99%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-50,25%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-54,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-43,32%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.798150713334593</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.976224612091797</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.595737144171283</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.573281655484492</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3733509238771969</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.051783600792517</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7901195468699379</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.392688762100146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; -0,06</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; -1,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; -1,72</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; -0,78</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-69,84; 1,05</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-72,07; -12,23</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-73,77; -17,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-66,19; -3,73</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.4348987959284</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.841887088188404</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-30.23825677033474</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.866316479109554</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.603608623162</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.84487631291999</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.942257167890557</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.71204072864941</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-3.180270466260631</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-5.429993877842008</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-7.415737002488116</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.81018591219072</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.4030156208107171</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.5236565216613329</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.6057105554561988</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.4231171946082263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.995636626124921</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-10.04439203265465</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.69644476194656</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.03145679097851</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6748942101277154</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7309484071420809</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.773835468296704</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6663660441895891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.3568644392123225</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-1.611351996097517</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-2.710248966841366</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.379122320161994</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.09865523733664416</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.1586930150108139</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2817763780399192</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.02054664524398629</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1009,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
